--- a/data/trans_bre/P2A_lim_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_lim_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.384574325253268</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.336536193056162</v>
+        <v>-1.336536193056165</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.005864957875340058</v>
@@ -649,7 +649,7 @@
         <v>0.2622913381468651</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.06101507873649335</v>
+        <v>-0.06101507873649346</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.978331530196317</v>
+        <v>-4.167084413755652</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.6572565777106759</v>
+        <v>-1.065721990157838</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.1529348762293345</v>
+        <v>-0.102698701304674</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.295928299206688</v>
+        <v>-6.17382469873088</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2520277185464956</v>
+        <v>-0.255233497331643</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.05411663138282365</v>
+        <v>-0.08905010734512131</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.01678005391401019</v>
+        <v>-0.02501206898296508</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2547241814290913</v>
+        <v>-0.2453632632873281</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.688208014829083</v>
+        <v>3.540662467582729</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.052776386471902</v>
+        <v>4.891481559797767</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.039201012224024</v>
+        <v>5.121695937738511</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.248977258623159</v>
+        <v>3.293674002521838</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3249158375009248</v>
+        <v>0.3057259380453822</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5322118375345773</v>
+        <v>0.4933149286437937</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6386081198458872</v>
+        <v>0.6492006732531308</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1672934415928344</v>
+        <v>0.1780555844400535</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.002119795108578</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8112966010923817</v>
+        <v>0.8112966010923789</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1060935556830705</v>
@@ -749,7 +749,7 @@
         <v>0.339522595920986</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.05049062697716061</v>
+        <v>0.05049062697716043</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.558449263509273</v>
+        <v>-2.788122172973714</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.000102102647251</v>
+        <v>-1.878798965937589</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.3732236792737624</v>
+        <v>-0.4806156777220132</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.346366442292132</v>
+        <v>-2.786581368584436</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3620932133430077</v>
+        <v>-0.3806676777117201</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1583980424402447</v>
+        <v>-0.1664545477566725</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06440138833225768</v>
+        <v>-0.07656905400339029</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1283525568131015</v>
+        <v>-0.1559807264864105</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.557500952527663</v>
+        <v>1.297848650946874</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.721402197093952</v>
+        <v>3.889957168979025</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.407069373758218</v>
+        <v>4.294213699165631</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.026209299474447</v>
+        <v>3.606471262310862</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2882993800974122</v>
+        <v>0.2440168657992075</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4021383919415399</v>
+        <v>0.4220133889444051</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9358285423071451</v>
+        <v>0.9331538014425943</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2836878999821557</v>
+        <v>0.2526670193229842</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.05351016919176443</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.073375374992359</v>
+        <v>1.073375374992361</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3510852580209828</v>
@@ -849,7 +849,7 @@
         <v>0.00842592563706338</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.0991016828083475</v>
+        <v>0.09910168280834762</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.412238471338967</v>
+        <v>-0.3886249230850884</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.987285677416474</v>
+        <v>-2.155478812881918</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.482578240175864</v>
+        <v>-2.611071972239207</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.933663895328885</v>
+        <v>-1.59893748718291</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.08446533749034286</v>
+        <v>-0.08032672659441924</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2057461017786947</v>
+        <v>-0.2242656458561897</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3199190304535169</v>
+        <v>-0.34157007652857</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1485100099214164</v>
+        <v>-0.1301019880519037</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.543960871784734</v>
+        <v>3.403565444651071</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.412542950303083</v>
+        <v>3.336316650320096</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.448316799797094</v>
+        <v>2.536264467764261</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.534149679393486</v>
+        <v>3.80687158202748</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.02106381881191</v>
+        <v>0.951934920584363</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5007862944301522</v>
+        <v>0.4860539425496468</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4657578664078966</v>
+        <v>0.4884760151665904</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3885170256369716</v>
+        <v>0.4004282614851002</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.567136337861746</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4909371016334943</v>
+        <v>0.4909371016334957</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6798640933975804</v>
@@ -949,7 +949,7 @@
         <v>0.2886085307862176</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.04995559879597572</v>
+        <v>0.04995559879597586</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.6659347264967274</v>
+        <v>-0.7762924418487532</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.165453473938128</v>
+        <v>1.360848258163708</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.558112927191222</v>
+        <v>-1.417082585664243</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.048295771258208</v>
+        <v>-2.167536955223481</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1815751818802077</v>
+        <v>-0.2041799422014416</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1157026118030117</v>
+        <v>0.153809138264612</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2440549483009629</v>
+        <v>-0.2178929806390162</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1764828804331802</v>
+        <v>-0.1961331918825078</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.605671652457956</v>
+        <v>5.847249486298424</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.586874013958154</v>
+        <v>9.147515228838326</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.809583971352218</v>
+        <v>5.077990248620384</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.040187958417885</v>
+        <v>3.10205102407909</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.294730252610404</v>
+        <v>2.483057555568516</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.956198445750795</v>
+        <v>1.965426262655081</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.247141521877051</v>
+        <v>1.379827735318375</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3680788886600067</v>
+        <v>0.3665026592904062</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.119451419208051</v>
+        <v>0.06344086523788607</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3906484413089814</v>
+        <v>0.3084061793222796</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3540656150298177</v>
+        <v>0.2020403533084165</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.7355017680988252</v>
+        <v>-0.8411157550310207</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01527778625127232</v>
+        <v>0.00725920906088237</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03761468162855708</v>
+        <v>0.02837182869908605</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04009795624334811</v>
+        <v>0.02564807948084998</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.04976422869906007</v>
+        <v>-0.05562322240003774</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.671652542048322</v>
+        <v>2.69437994414837</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.519213060563436</v>
+        <v>3.451203587867386</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.032252070974567</v>
+        <v>3.055642171196836</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.380367636732362</v>
+        <v>2.316191812067001</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4466003183140875</v>
+        <v>0.4441755919362311</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4076116422379028</v>
+        <v>0.395623436745251</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4647563072264188</v>
+        <v>0.4781856270382217</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1880232865139448</v>
+        <v>0.1823093473300484</v>
       </c>
     </row>
     <row r="19">
